--- a/Friobom/Engineering/data/excel_files/3114-227_F.xlsx
+++ b/Friobom/Engineering/data/excel_files/3114-227_F.xlsx
@@ -582,22 +582,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.214</v>
+        <v>5.088</v>
       </c>
       <c r="E2" t="n">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="F2" t="n">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="G2" t="n">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="H2" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>727</v>
+        <v>463</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>317</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -621,22 +621,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="R2" t="n">
-        <v>51.01</v>
+        <v>60.93</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>45287</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>45226</v>
       </c>
       <c r="V2" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="W2" t="n">
         <v>120</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1547.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.863</v>
+        <v>1.769</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F3" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>236</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R3" t="n">
-        <v>126.68</v>
+        <v>132.84</v>
       </c>
       <c r="S3" s="2" t="n">
         <v>45288</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>45226</v>
       </c>
       <c r="V3" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="W3" t="n">
         <v>276</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1866.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.444</v>
+        <v>12.22</v>
       </c>
       <c r="E4" t="n">
-        <v>602</v>
+        <v>286</v>
       </c>
       <c r="F4" t="n">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="G4" t="n">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="H4" t="n">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1690</v>
+        <v>1112</v>
       </c>
       <c r="J4" t="n">
         <v>16</v>
@@ -773,34 +773,34 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="R4" t="n">
-        <v>24.99</v>
+        <v>28.81</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>45226</v>
       </c>
       <c r="V4" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="W4" t="n">
         <v>888</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>3966.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.256</v>
+        <v>2.978</v>
       </c>
       <c r="E5" t="n">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G5" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>498</v>
+        <v>271</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>498</v>
       </c>
       <c r="R5" t="n">
-        <v>117.01</v>
+        <v>167.23</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>45287</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>45236</v>
       </c>
       <c r="V5" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W5" t="n">
         <v>300</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>2190.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>275.855</v>
+        <v>281.912</v>
       </c>
       <c r="E6" t="n">
-        <v>7145</v>
+        <v>7806</v>
       </c>
       <c r="F6" t="n">
-        <v>7806</v>
+        <v>9080</v>
       </c>
       <c r="G6" t="n">
-        <v>9080</v>
+        <v>8768</v>
       </c>
       <c r="H6" t="n">
-        <v>8352</v>
+        <v>121</v>
       </c>
       <c r="I6" t="n">
-        <v>32383</v>
+        <v>25775</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>19559</v>
+        <v>19022</v>
       </c>
       <c r="N6" t="n">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>19321</v>
+        <v>18677</v>
       </c>
       <c r="R6" t="n">
-        <v>70.04000000000001</v>
+        <v>66.25</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>45236</v>
       </c>
       <c r="V6" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W6" t="n">
         <v>2880</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>82565.85000000001</v>
+        <v>1228.9</v>
       </c>
     </row>
     <row r="7">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54.704</v>
+        <v>54.044</v>
       </c>
       <c r="E7" t="n">
-        <v>1504</v>
+        <v>1557</v>
       </c>
       <c r="F7" t="n">
-        <v>1557</v>
+        <v>1608</v>
       </c>
       <c r="G7" t="n">
-        <v>1608</v>
+        <v>1753</v>
       </c>
       <c r="H7" t="n">
-        <v>1635</v>
+        <v>28</v>
       </c>
       <c r="I7" t="n">
-        <v>6304</v>
+        <v>4946</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5170</v>
+        <v>5024</v>
       </c>
       <c r="N7" t="n">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>5063</v>
+        <v>4987</v>
       </c>
       <c r="R7" t="n">
-        <v>92.55</v>
+        <v>92.28</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>45236</v>
       </c>
       <c r="V7" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W7" t="n">
         <v>1500</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>38019.86</v>
+        <v>654.9299999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.083</v>
+        <v>0.019</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1122,13 +1122,13 @@
         <v>45255</v>
       </c>
       <c r="T8" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>45133</v>
       </c>
       <c r="V8" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="W8" t="n">
         <v>60</v>
@@ -1204,13 +1204,13 @@
         <v>44799</v>
       </c>
       <c r="T9" t="n">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>44704</v>
       </c>
       <c r="V9" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="W9" t="n">
         <v>1680</v>
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.829</v>
+        <v>4.648</v>
       </c>
       <c r="E10" t="n">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="F10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="G10" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H10" t="n">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>565</v>
+        <v>435</v>
       </c>
       <c r="J10" t="n">
         <v>16</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="N10" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="R10" t="n">
-        <v>7.66</v>
+        <v>5.38</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>45118</v>
       </c>
       <c r="V10" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="W10" t="n">
         <v>360</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1586.87</v>
+        <v>165.63</v>
       </c>
     </row>
     <row r="11">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.657999999999999</v>
+        <v>7.868</v>
       </c>
       <c r="E11" t="n">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="F11" t="n">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="G11" t="n">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="H11" t="n">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>1013</v>
+        <v>728</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>699</v>
+        <v>651</v>
       </c>
       <c r="N11" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1359,22 +1359,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="R11" t="n">
-        <v>76.58</v>
+        <v>82.36</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>45236</v>
       </c>
       <c r="V11" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="W11" t="n">
         <v>216</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2167.76</v>
+        <v>178.35</v>
       </c>
     </row>
     <row r="12">
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.436</v>
+        <v>1.143</v>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="R12" t="n">
-        <v>81.48</v>
+        <v>97.11</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>45226</v>
       </c>
       <c r="V12" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="W12" t="n">
         <v>192</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1134.31</v>
+        <v>206.88</v>
       </c>
     </row>
     <row r="13">
@@ -1484,13 +1484,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>555.5599999999999</v>
+        <v>454.55</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="T13" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="U13" s="2" t="n">
         <v>45118</v>
       </c>
       <c r="V13" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="W13" t="n">
         <v>6</v>
@@ -1566,28 +1566,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.761</v>
+        <v>2.22</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="G14" t="n">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1605,22 +1605,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R14" t="n">
-        <v>21.58</v>
+        <v>14.41</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>45280</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U14" s="2" t="n">
         <v>45226</v>
       </c>
       <c r="V14" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="W14" t="n">
         <v>240</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>319.39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
